--- a/xlsx/德國_intext.xlsx
+++ b/xlsx/德國_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2978">
   <si>
     <t>德國</t>
   </si>
@@ -23,15 +23,27 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%BE%B7%E7%B5%B1%E4%B8%80</t>
+  </si>
+  <si>
+    <t>兩德統一</t>
+  </si>
+  <si>
+    <t>体育运动_体育运动_奥林匹克运动会_德國</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>西德</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%9B%BD%E6%97%97</t>
   </si>
   <si>
     <t>德国国旗</t>
   </si>
   <si>
-    <t>政策_政策_行政_德國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%9B%BD%E5%BE%BD</t>
   </si>
   <si>
@@ -224,12 +236,6 @@
     <t>歐洲經濟共同體</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E5%BE%B7%E7%B5%B1%E4%B8%80</t>
-  </si>
-  <si>
-    <t>兩德統一</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD%E5%9C%B0%E7%90%86</t>
   </si>
   <si>
@@ -584,12 +590,6 @@
     <t>東德</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>西德</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E7%B5%B1%E4%B8%80%E6%97%A5</t>
   </si>
   <si>
@@ -7508,10 +7508,34 @@
     <t>英国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>爱尔兰共和国</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>英格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E5%85%B0</t>
+  </si>
+  <si>
+    <t>苏格兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>威爾士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>北爱尔兰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
+  </si>
+  <si>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%AC%A7</t>
@@ -7562,10 +7586,16 @@
     <t>列支敦斯登</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E4%BF%84</t>
-  </si>
-  <si>
-    <t>歐俄</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E5%8A%A0%E7%9B%9F%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>苏联加盟共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>歐洲俄羅斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF</t>
@@ -7604,10 +7634,10 @@
     <t>摩尔多瓦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2</t>
-  </si>
-  <si>
-    <t>巴尔干</t>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%B0%94%E5%B9%B2%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
@@ -7694,18 +7724,18 @@
     <t>義大利</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
+  </si>
+  <si>
+    <t>梵蒂岡</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%BA%A7</t>
   </si>
   <si>
     <t>聖座</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%B2%A1</t>
-  </si>
-  <si>
-    <t>梵蒂岡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
   </si>
   <si>
@@ -7730,10 +7760,10 @@
     <t>安道尔</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>屬地</t>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%A4%96%E5%B1%9E%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>海外属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%B8%83%E7%BD%97%E9%99%80</t>
@@ -7784,16 +7814,22 @@
     <t>馬爾他騎士團</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>色雷斯</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%80%B3%E5%85%B6</t>
   </si>
   <si>
     <t>土耳其</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E9%9B%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>色雷斯</t>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>西哈萨克斯坦州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -7802,10 +7838,10 @@
     <t>哈萨克斯坦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>西哈萨克斯坦州</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>高加索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -8838,12 +8874,6 @@
   </si>
   <si>
     <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0</t>
-  </si>
-  <si>
-    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
@@ -9267,7 +9297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1588"/>
+  <dimension ref="A1:I1593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9321,7 +9351,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -9350,7 +9380,7 @@
         <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
         <v>4</v>
@@ -9379,7 +9409,7 @@
         <v>8</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
         <v>4</v>
@@ -9408,7 +9438,7 @@
         <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -9437,7 +9467,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
         <v>4</v>
@@ -9466,7 +9496,7 @@
         <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -9495,7 +9525,7 @@
         <v>16</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
         <v>4</v>
@@ -9524,7 +9554,7 @@
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
         <v>4</v>
@@ -9553,7 +9583,7 @@
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>4</v>
@@ -9582,7 +9612,7 @@
         <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
         <v>4</v>
@@ -9611,7 +9641,7 @@
         <v>24</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
         <v>4</v>
@@ -9640,7 +9670,7 @@
         <v>26</v>
       </c>
       <c r="G13" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -9698,7 +9728,7 @@
         <v>30</v>
       </c>
       <c r="G15" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
         <v>4</v>
@@ -9727,7 +9757,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
@@ -9756,7 +9786,7 @@
         <v>34</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
         <v>4</v>
@@ -9785,7 +9815,7 @@
         <v>36</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
         <v>4</v>
@@ -9959,7 +9989,7 @@
         <v>48</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H24" t="s">
         <v>4</v>
@@ -10017,7 +10047,7 @@
         <v>52</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" t="s">
         <v>4</v>
@@ -10046,7 +10076,7 @@
         <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>4</v>
@@ -10075,7 +10105,7 @@
         <v>56</v>
       </c>
       <c r="G28" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
         <v>4</v>
@@ -10104,7 +10134,7 @@
         <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
@@ -10133,7 +10163,7 @@
         <v>60</v>
       </c>
       <c r="G30" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
@@ -10162,7 +10192,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
@@ -10191,7 +10221,7 @@
         <v>64</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
@@ -10220,7 +10250,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
@@ -10249,7 +10279,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
@@ -10278,7 +10308,7 @@
         <v>70</v>
       </c>
       <c r="G35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
@@ -10307,7 +10337,7 @@
         <v>72</v>
       </c>
       <c r="G36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
@@ -10336,7 +10366,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -10365,7 +10395,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>4</v>
@@ -10394,7 +10424,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -10452,7 +10482,7 @@
         <v>82</v>
       </c>
       <c r="G41" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>4</v>
@@ -10481,7 +10511,7 @@
         <v>84</v>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
@@ -10510,7 +10540,7 @@
         <v>86</v>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
@@ -10539,7 +10569,7 @@
         <v>88</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H44" t="s">
         <v>4</v>
@@ -10568,7 +10598,7 @@
         <v>90</v>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H45" t="s">
         <v>4</v>
@@ -10626,7 +10656,7 @@
         <v>94</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="s">
         <v>4</v>
@@ -10684,7 +10714,7 @@
         <v>98</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>4</v>
@@ -10713,7 +10743,7 @@
         <v>100</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50" t="s">
         <v>4</v>
@@ -10771,7 +10801,7 @@
         <v>104</v>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
         <v>4</v>
@@ -10800,7 +10830,7 @@
         <v>106</v>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
@@ -10945,7 +10975,7 @@
         <v>116</v>
       </c>
       <c r="G58" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
         <v>4</v>
@@ -10974,7 +11004,7 @@
         <v>118</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H59" t="s">
         <v>4</v>
@@ -11003,7 +11033,7 @@
         <v>120</v>
       </c>
       <c r="G60" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -11032,7 +11062,7 @@
         <v>122</v>
       </c>
       <c r="G61" t="n">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -11061,7 +11091,7 @@
         <v>124</v>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>148</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -11090,7 +11120,7 @@
         <v>126</v>
       </c>
       <c r="G63" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -11119,7 +11149,7 @@
         <v>128</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s">
         <v>4</v>
@@ -11148,7 +11178,7 @@
         <v>130</v>
       </c>
       <c r="G65" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
         <v>4</v>
@@ -11177,7 +11207,7 @@
         <v>132</v>
       </c>
       <c r="G66" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H66" t="s">
         <v>4</v>
@@ -11206,7 +11236,7 @@
         <v>134</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -11235,7 +11265,7 @@
         <v>136</v>
       </c>
       <c r="G68" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
@@ -11293,7 +11323,7 @@
         <v>140</v>
       </c>
       <c r="G70" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -11322,7 +11352,7 @@
         <v>142</v>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H71" t="s">
         <v>4</v>
@@ -11351,7 +11381,7 @@
         <v>144</v>
       </c>
       <c r="G72" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H72" t="s">
         <v>4</v>
@@ -11380,7 +11410,7 @@
         <v>146</v>
       </c>
       <c r="G73" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="H73" t="s">
         <v>4</v>
@@ -11409,7 +11439,7 @@
         <v>148</v>
       </c>
       <c r="G74" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -11438,7 +11468,7 @@
         <v>150</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -11496,7 +11526,7 @@
         <v>154</v>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -11525,7 +11555,7 @@
         <v>156</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -11554,7 +11584,7 @@
         <v>158</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -11583,7 +11613,7 @@
         <v>160</v>
       </c>
       <c r="G80" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -11612,7 +11642,7 @@
         <v>162</v>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="H81" t="s">
         <v>4</v>
@@ -11641,7 +11671,7 @@
         <v>164</v>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H82" t="s">
         <v>4</v>
@@ -11699,7 +11729,7 @@
         <v>168</v>
       </c>
       <c r="G84" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
         <v>4</v>
@@ -11728,7 +11758,7 @@
         <v>170</v>
       </c>
       <c r="G85" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H85" t="s">
         <v>4</v>
@@ -11757,7 +11787,7 @@
         <v>172</v>
       </c>
       <c r="G86" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H86" t="s">
         <v>4</v>
@@ -11786,7 +11816,7 @@
         <v>174</v>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H87" t="s">
         <v>4</v>
@@ -11896,10 +11926,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>63</v>
+        <v>181</v>
       </c>
       <c r="F91" t="s">
-        <v>64</v>
+        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -11925,13 +11955,13 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>68</v>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
         <v>4</v>
@@ -11960,7 +11990,7 @@
         <v>184</v>
       </c>
       <c r="G93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H93" t="s">
         <v>4</v>
@@ -12018,7 +12048,7 @@
         <v>188</v>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
         <v>4</v>
@@ -12047,7 +12077,7 @@
         <v>190</v>
       </c>
       <c r="G96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H96" t="s">
         <v>4</v>
@@ -12070,13 +12100,13 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H97" t="s">
         <v>4</v>
@@ -12099,13 +12129,13 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>25</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H98" t="s">
         <v>4</v>
@@ -12128,13 +12158,13 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>30</v>
       </c>
       <c r="G99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H99" t="s">
         <v>4</v>
@@ -12157,13 +12187,13 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H100" t="s">
         <v>4</v>
@@ -12186,13 +12216,13 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>91</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101" t="s">
         <v>4</v>
@@ -12215,10 +12245,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="F102" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -12244,10 +12274,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>90</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -12273,10 +12303,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -12302,13 +12332,13 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="s">
         <v>4</v>
@@ -12331,13 +12361,13 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
         <v>4</v>
@@ -12360,13 +12390,13 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107" t="s">
         <v>4</v>
@@ -12389,10 +12419,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -12418,10 +12448,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -12447,10 +12477,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -12476,10 +12506,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -12505,10 +12535,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -12534,13 +12564,13 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H113" t="s">
         <v>4</v>
@@ -12563,13 +12593,13 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G114" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H114" t="s">
         <v>4</v>
@@ -12592,13 +12622,13 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F115" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G115" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H115" t="s">
         <v>4</v>
@@ -12621,13 +12651,13 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F116" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G116" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H116" t="s">
         <v>4</v>
@@ -12650,13 +12680,13 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F117" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H117" t="s">
         <v>4</v>
@@ -12679,13 +12709,13 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F118" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H118" t="s">
         <v>4</v>
@@ -12708,13 +12738,13 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F119" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H119" t="s">
         <v>4</v>
@@ -12737,10 +12767,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F120" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -12766,10 +12796,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F121" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -12795,13 +12825,13 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F122" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G122" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -12824,13 +12854,13 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="H123" t="s">
         <v>4</v>
@@ -12853,13 +12883,13 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="H124" t="s">
         <v>4</v>
@@ -12882,13 +12912,13 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="H125" t="s">
         <v>4</v>
@@ -12911,13 +12941,13 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="H126" t="s">
         <v>4</v>
@@ -12940,13 +12970,13 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
       <c r="F127" t="s">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -12969,13 +12999,13 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F128" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H128" t="s">
         <v>4</v>
@@ -12998,13 +13028,13 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c r="F129" t="s">
-        <v>164</v>
+        <v>246</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="s">
         <v>4</v>
@@ -13027,13 +13057,13 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c r="G130" t="n">
-        <v>204</v>
+        <v>1</v>
       </c>
       <c r="H130" t="s">
         <v>4</v>
@@ -13056,13 +13086,13 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="H131" t="s">
         <v>4</v>
@@ -13085,13 +13115,13 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -13114,13 +13144,13 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>4</v>
@@ -13143,13 +13173,13 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H134" t="s">
         <v>4</v>
@@ -13172,10 +13202,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -13201,10 +13231,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -13230,10 +13260,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -13259,13 +13289,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -13288,13 +13318,13 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H139" t="s">
         <v>4</v>
@@ -13317,13 +13347,13 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H140" t="s">
         <v>4</v>
@@ -13346,10 +13376,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -13375,13 +13405,13 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="s">
         <v>4</v>
@@ -13404,13 +13434,13 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H143" t="s">
         <v>4</v>
@@ -13433,10 +13463,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -13462,10 +13492,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -13491,10 +13521,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -13520,13 +13550,13 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -13549,13 +13579,13 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H148" t="s">
         <v>4</v>
@@ -13578,10 +13608,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -13607,10 +13637,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -13636,10 +13666,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -13665,10 +13695,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -13694,10 +13724,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -13723,13 +13753,13 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H154" t="s">
         <v>4</v>
@@ -13752,13 +13782,13 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H155" t="s">
         <v>4</v>
@@ -13781,10 +13811,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G156" t="n">
         <v>3</v>
@@ -13810,13 +13840,13 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H157" t="s">
         <v>4</v>
@@ -13839,13 +13869,13 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G158" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H158" t="s">
         <v>4</v>
@@ -13868,13 +13898,13 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H159" t="s">
         <v>4</v>
@@ -13897,10 +13927,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>165</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>166</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -13926,13 +13956,13 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="F161" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G161" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H161" t="s">
         <v>4</v>
@@ -13955,13 +13985,13 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>159</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>160</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H162" t="s">
         <v>4</v>
@@ -13984,10 +14014,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -14013,10 +14043,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -14042,10 +14072,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -14071,10 +14101,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -14100,10 +14130,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -14129,10 +14159,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -14158,13 +14188,13 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G169" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H169" t="s">
         <v>4</v>
@@ -14187,13 +14217,13 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G170" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H170" t="s">
         <v>4</v>
@@ -14216,13 +14246,13 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H171" t="s">
         <v>4</v>
@@ -14245,13 +14275,13 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>159</v>
+        <v>325</v>
       </c>
       <c r="F172" t="s">
-        <v>160</v>
+        <v>326</v>
       </c>
       <c r="G172" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H172" t="s">
         <v>4</v>
@@ -14274,13 +14304,13 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>327</v>
+        <v>161</v>
       </c>
       <c r="F173" t="s">
-        <v>328</v>
+        <v>162</v>
       </c>
       <c r="G173" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -14303,13 +14333,13 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F174" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G174" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -14332,10 +14362,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F175" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -14361,10 +14391,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F176" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -14390,10 +14420,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F177" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -14419,10 +14449,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F178" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -14448,10 +14478,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F179" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -14477,10 +14507,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F180" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -14506,10 +14536,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>163</v>
+        <v>341</v>
       </c>
       <c r="F181" t="s">
-        <v>164</v>
+        <v>342</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -14535,13 +14565,13 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>343</v>
+        <v>165</v>
       </c>
       <c r="F182" t="s">
-        <v>344</v>
+        <v>166</v>
       </c>
       <c r="G182" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H182" t="s">
         <v>4</v>
@@ -14564,13 +14594,13 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F183" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G183" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -14593,13 +14623,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F184" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G184" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -14622,13 +14652,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F185" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -14651,13 +14681,13 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F186" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H186" t="s">
         <v>4</v>
@@ -14680,10 +14710,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F187" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -14709,10 +14739,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F188" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -14738,10 +14768,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F189" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -14767,10 +14797,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F190" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -14796,10 +14826,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F191" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -14825,10 +14855,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F192" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -14854,10 +14884,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F193" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -14883,10 +14913,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F194" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -14912,10 +14942,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F195" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -14941,13 +14971,13 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F196" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G196" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H196" t="s">
         <v>4</v>
@@ -14970,13 +15000,13 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F197" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G197" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H197" t="s">
         <v>4</v>
@@ -14999,13 +15029,13 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H198" t="s">
         <v>4</v>
@@ -15028,10 +15058,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -15057,13 +15087,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F200" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -15086,13 +15116,13 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -15115,10 +15145,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -15144,13 +15174,13 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F203" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G203" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H203" t="s">
         <v>4</v>
@@ -15173,13 +15203,13 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F204" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G204" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H204" t="s">
         <v>4</v>
@@ -15202,10 +15232,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F205" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -15231,10 +15261,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F206" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -15260,10 +15290,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F207" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -15289,10 +15319,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>53</v>
+        <v>393</v>
       </c>
       <c r="F208" t="s">
-        <v>54</v>
+        <v>394</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -15318,13 +15348,13 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>395</v>
+        <v>57</v>
       </c>
       <c r="F209" t="s">
-        <v>396</v>
+        <v>58</v>
       </c>
       <c r="G209" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H209" t="s">
         <v>4</v>
@@ -15347,13 +15377,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F210" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -15376,10 +15406,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F211" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -15405,10 +15435,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F212" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -15434,10 +15464,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F213" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -15463,10 +15493,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F214" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -15492,10 +15522,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F215" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -15521,10 +15551,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F216" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -15550,13 +15580,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F217" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -15579,13 +15609,13 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F218" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -15608,10 +15638,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F219" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -15637,10 +15667,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F220" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -15666,13 +15696,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F221" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -15695,13 +15725,13 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F222" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H222" t="s">
         <v>4</v>
@@ -15724,10 +15754,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F223" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -15753,10 +15783,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F224" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -15782,13 +15812,13 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F225" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H225" t="s">
         <v>4</v>
@@ -15811,10 +15841,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F226" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -15840,13 +15870,13 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F227" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H227" t="s">
         <v>4</v>
@@ -15869,10 +15899,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F228" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -15898,13 +15928,13 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F229" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -15927,10 +15957,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F230" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G230" t="n">
         <v>2</v>
@@ -15956,13 +15986,13 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F231" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H231" t="s">
         <v>4</v>
@@ -15985,10 +16015,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F232" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -16014,10 +16044,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F233" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -16043,10 +16073,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F234" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -16072,13 +16102,13 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F235" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -16101,13 +16131,13 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F236" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H236" t="s">
         <v>4</v>
@@ -16130,10 +16160,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F237" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -16159,10 +16189,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F238" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -16188,10 +16218,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F239" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -16217,13 +16247,13 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F240" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H240" t="s">
         <v>4</v>
@@ -16246,10 +16276,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F241" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -16275,13 +16305,13 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F242" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H242" t="s">
         <v>4</v>
@@ -16304,10 +16334,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F243" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -16333,10 +16363,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F244" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -16362,10 +16392,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F245" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -16391,10 +16421,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F246" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -16420,10 +16450,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F247" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -16449,10 +16479,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F248" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -16478,13 +16508,13 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F249" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -16507,13 +16537,13 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F250" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -16536,10 +16566,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F251" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -16565,10 +16595,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F252" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -16594,10 +16624,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F253" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -16623,10 +16653,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F254" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -16652,10 +16682,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F255" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -16681,10 +16711,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F256" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -16710,13 +16740,13 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F257" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H257" t="s">
         <v>4</v>
@@ -16739,13 +16769,13 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F258" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -16768,10 +16798,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F259" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -16797,10 +16827,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F260" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -16826,10 +16856,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F261" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -16855,13 +16885,13 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F262" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -16884,13 +16914,13 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F263" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -16913,10 +16943,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F264" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -16942,10 +16972,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F265" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -16971,13 +17001,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F266" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G266" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -17000,13 +17030,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F267" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -17029,13 +17059,13 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F268" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -17058,13 +17088,13 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F269" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H269" t="s">
         <v>4</v>
@@ -17087,13 +17117,13 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F270" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G270" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H270" t="s">
         <v>4</v>
@@ -17116,13 +17146,13 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F271" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G271" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H271" t="s">
         <v>4</v>
@@ -17145,13 +17175,13 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F272" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G272" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H272" t="s">
         <v>4</v>
@@ -17174,13 +17204,13 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F273" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -17203,10 +17233,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F274" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -17232,13 +17262,13 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F275" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -17261,10 +17291,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F276" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G276" t="n">
         <v>2</v>
@@ -17290,13 +17320,13 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F277" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H277" t="s">
         <v>4</v>
@@ -17319,13 +17349,13 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F278" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -17348,13 +17378,13 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F279" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H279" t="s">
         <v>4</v>
@@ -17377,13 +17407,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F280" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -17406,10 +17436,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>171</v>
+        <v>535</v>
       </c>
       <c r="F281" t="s">
-        <v>172</v>
+        <v>536</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -17435,13 +17465,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>537</v>
+        <v>173</v>
       </c>
       <c r="F282" t="s">
-        <v>538</v>
+        <v>174</v>
       </c>
       <c r="G282" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -17464,13 +17494,13 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F283" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G283" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H283" t="s">
         <v>4</v>
@@ -17493,13 +17523,13 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F284" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -17522,13 +17552,13 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F285" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H285" t="s">
         <v>4</v>
@@ -17551,13 +17581,13 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F286" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -17580,13 +17610,13 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F287" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -17609,10 +17639,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F288" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -17638,10 +17668,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F289" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -17667,13 +17697,13 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F290" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H290" t="s">
         <v>4</v>
@@ -17696,10 +17726,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F291" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -17725,13 +17755,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F292" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -17754,10 +17784,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F293" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -17812,10 +17842,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F295" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -17841,10 +17871,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F296" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -17870,10 +17900,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F297" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -17899,10 +17929,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F298" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -17928,10 +17958,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F299" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -17957,10 +17987,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F300" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -17986,10 +18016,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F301" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -18015,13 +18045,13 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F302" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -18044,10 +18074,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F303" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G303" t="n">
         <v>2</v>
@@ -18073,10 +18103,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>175</v>
+        <v>577</v>
       </c>
       <c r="F304" t="s">
-        <v>176</v>
+        <v>578</v>
       </c>
       <c r="G304" t="n">
         <v>2</v>
@@ -18102,13 +18132,13 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>579</v>
+        <v>177</v>
       </c>
       <c r="F305" t="s">
-        <v>580</v>
+        <v>178</v>
       </c>
       <c r="G305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H305" t="s">
         <v>4</v>
@@ -18131,13 +18161,13 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F306" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G306" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H306" t="s">
         <v>4</v>
@@ -18160,13 +18190,13 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F307" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H307" t="s">
         <v>4</v>
@@ -18189,13 +18219,13 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F308" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G308" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -18218,13 +18248,13 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>25</v>
+        <v>585</v>
       </c>
       <c r="F309" t="s">
-        <v>26</v>
+        <v>586</v>
       </c>
       <c r="G309" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H309" t="s">
         <v>4</v>
@@ -18247,13 +18277,13 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>587</v>
+        <v>29</v>
       </c>
       <c r="F310" t="s">
-        <v>588</v>
+        <v>30</v>
       </c>
       <c r="G310" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -18276,10 +18306,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F311" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -18305,10 +18335,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F312" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -18334,10 +18364,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F313" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -18363,10 +18393,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F314" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -18392,10 +18422,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F315" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -18421,10 +18451,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F316" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -18450,10 +18480,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F317" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -18479,10 +18509,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F318" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -18508,10 +18538,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F319" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -18537,10 +18567,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F320" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -18566,10 +18596,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F321" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -18595,10 +18625,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F322" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -18624,10 +18654,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F323" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -18653,10 +18683,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F324" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -18682,10 +18712,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F325" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -18711,10 +18741,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F326" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -18740,10 +18770,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F327" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -18769,10 +18799,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F328" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -18798,10 +18828,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F329" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -18827,10 +18857,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F330" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -18856,10 +18886,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F331" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -18885,10 +18915,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F332" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -18914,10 +18944,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F333" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -18943,10 +18973,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F334" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -18972,10 +19002,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F335" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -19001,10 +19031,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F336" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -19030,10 +19060,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F337" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -19059,10 +19089,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F338" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -19088,10 +19118,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F339" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -19117,13 +19147,13 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="F340" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G340" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H340" t="s">
         <v>4</v>
@@ -19146,13 +19176,13 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="F341" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="G341" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H341" t="s">
         <v>4</v>
@@ -19175,10 +19205,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="F342" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -19204,13 +19234,13 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="F343" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="G343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -19233,13 +19263,13 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="F344" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="G344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -19262,10 +19292,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F345" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -19291,13 +19321,13 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="F346" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="G346" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -19320,13 +19350,13 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="F347" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="G347" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H347" t="s">
         <v>4</v>
@@ -19349,13 +19379,13 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="F348" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="G348" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -19378,13 +19408,13 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="F349" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G349" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H349" t="s">
         <v>4</v>
@@ -19407,10 +19437,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F350" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G350" t="n">
         <v>6</v>
@@ -19436,13 +19466,13 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="F351" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="G351" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="H351" t="s">
         <v>4</v>
@@ -19465,13 +19495,13 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F352" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="G352" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -19494,13 +19524,13 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="F353" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="G353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H353" t="s">
         <v>4</v>
@@ -19523,13 +19553,13 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="F354" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G354" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -19552,13 +19582,13 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="F355" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G355" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H355" t="s">
         <v>4</v>
@@ -19581,13 +19611,13 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F356" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="G356" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -19610,10 +19640,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="F357" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -19639,10 +19669,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="F358" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -19668,10 +19698,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="F359" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -19697,10 +19727,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="F360" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -19726,10 +19756,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="F361" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -19755,10 +19785,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F362" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -19784,10 +19814,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F363" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -19813,10 +19843,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="F364" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -19842,10 +19872,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="F365" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -19871,10 +19901,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F366" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -19900,13 +19930,13 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>625</v>
+        <v>699</v>
       </c>
       <c r="F367" t="s">
-        <v>626</v>
+        <v>700</v>
       </c>
       <c r="G367" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H367" t="s">
         <v>4</v>
@@ -19929,13 +19959,13 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>701</v>
+        <v>625</v>
       </c>
       <c r="F368" t="s">
-        <v>702</v>
+        <v>626</v>
       </c>
       <c r="G368" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H368" t="s">
         <v>4</v>
@@ -19958,13 +19988,13 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F369" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="G369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H369" t="s">
         <v>4</v>
@@ -19987,10 +20017,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F370" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -20016,13 +20046,13 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F371" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -20045,10 +20075,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="F372" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -20074,10 +20104,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F373" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -20103,10 +20133,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="F374" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -20132,10 +20162,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F375" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -20161,10 +20191,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="F376" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -20190,10 +20220,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F377" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -20219,13 +20249,13 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>189</v>
+        <v>719</v>
       </c>
       <c r="F378" t="s">
-        <v>190</v>
+        <v>720</v>
       </c>
       <c r="G378" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="H378" t="s">
         <v>4</v>
@@ -20248,10 +20278,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F379" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G379" t="n">
         <v>8</v>
@@ -21959,10 +21989,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F438" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -23641,10 +23671,10 @@
         <v>495</v>
       </c>
       <c r="E496" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F496" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G496" t="n">
         <v>1</v>
@@ -23960,10 +23990,10 @@
         <v>506</v>
       </c>
       <c r="E507" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F507" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G507" t="n">
         <v>28</v>
@@ -24482,10 +24512,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F525" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -24540,10 +24570,10 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F527" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G527" t="n">
         <v>2</v>
@@ -24627,10 +24657,10 @@
         <v>529</v>
       </c>
       <c r="E530" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F530" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G530" t="n">
         <v>4</v>
@@ -24859,10 +24889,10 @@
         <v>537</v>
       </c>
       <c r="E538" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F538" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G538" t="n">
         <v>4</v>
@@ -25323,10 +25353,10 @@
         <v>553</v>
       </c>
       <c r="E554" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F554" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G554" t="n">
         <v>3</v>
@@ -27411,10 +27441,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F626" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -27440,10 +27470,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F627" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -32080,10 +32110,10 @@
         <v>786</v>
       </c>
       <c r="E787" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F787" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G787" t="n">
         <v>1</v>
@@ -32144,7 +32174,7 @@
         <v>1496</v>
       </c>
       <c r="G789" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H789" t="s">
         <v>4</v>
@@ -32167,10 +32197,10 @@
         <v>789</v>
       </c>
       <c r="E790" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F790" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G790" t="n">
         <v>1</v>
@@ -32196,10 +32226,10 @@
         <v>790</v>
       </c>
       <c r="E791" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F791" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G791" t="n">
         <v>2</v>
@@ -44695,10 +44725,10 @@
         <v>1221</v>
       </c>
       <c r="E1222" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F1222" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G1222" t="n">
         <v>1</v>
@@ -45652,10 +45682,10 @@
         <v>1254</v>
       </c>
       <c r="E1255" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F1255" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G1255" t="n">
         <v>3</v>
@@ -45681,10 +45711,10 @@
         <v>1255</v>
       </c>
       <c r="E1256" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F1256" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G1256" t="n">
         <v>2</v>
@@ -45913,10 +45943,10 @@
         <v>1263</v>
       </c>
       <c r="E1264" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F1264" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G1264" t="n">
         <v>1</v>
@@ -46029,10 +46059,10 @@
         <v>1267</v>
       </c>
       <c r="E1268" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1268" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1268" t="n">
         <v>7</v>
@@ -46203,10 +46233,10 @@
         <v>1273</v>
       </c>
       <c r="E1274" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F1274" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1274" t="n">
         <v>22</v>
@@ -48123,7 +48153,7 @@
         <v>2492</v>
       </c>
       <c r="G1340" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1340" t="s">
         <v>4</v>
@@ -48210,7 +48240,7 @@
         <v>2498</v>
       </c>
       <c r="G1343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1343" t="s">
         <v>4</v>
@@ -48297,7 +48327,7 @@
         <v>2504</v>
       </c>
       <c r="G1346" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1346" t="s">
         <v>4</v>
@@ -48326,7 +48356,7 @@
         <v>2506</v>
       </c>
       <c r="G1347" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1347" t="s">
         <v>4</v>
@@ -48355,7 +48385,7 @@
         <v>2508</v>
       </c>
       <c r="G1348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1348" t="s">
         <v>4</v>
@@ -48384,7 +48414,7 @@
         <v>2510</v>
       </c>
       <c r="G1349" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1349" t="s">
         <v>4</v>
@@ -48442,7 +48472,7 @@
         <v>2514</v>
       </c>
       <c r="G1351" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1351" t="s">
         <v>4</v>
@@ -48471,7 +48501,7 @@
         <v>2516</v>
       </c>
       <c r="G1352" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1352" t="s">
         <v>4</v>
@@ -48500,7 +48530,7 @@
         <v>2518</v>
       </c>
       <c r="G1353" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1353" t="s">
         <v>4</v>
@@ -48529,7 +48559,7 @@
         <v>2520</v>
       </c>
       <c r="G1354" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H1354" t="s">
         <v>4</v>
@@ -48558,7 +48588,7 @@
         <v>2522</v>
       </c>
       <c r="G1355" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1355" t="s">
         <v>4</v>
@@ -48587,7 +48617,7 @@
         <v>2524</v>
       </c>
       <c r="G1356" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1356" t="s">
         <v>4</v>
@@ -48645,7 +48675,7 @@
         <v>2528</v>
       </c>
       <c r="G1358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1358" t="s">
         <v>4</v>
@@ -48674,7 +48704,7 @@
         <v>2530</v>
       </c>
       <c r="G1359" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1359" t="s">
         <v>4</v>
@@ -48732,7 +48762,7 @@
         <v>2534</v>
       </c>
       <c r="G1361" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1361" t="s">
         <v>4</v>
@@ -48761,7 +48791,7 @@
         <v>2536</v>
       </c>
       <c r="G1362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1362" t="s">
         <v>4</v>
@@ -48790,7 +48820,7 @@
         <v>2538</v>
       </c>
       <c r="G1363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1363" t="s">
         <v>4</v>
@@ -48819,7 +48849,7 @@
         <v>2540</v>
       </c>
       <c r="G1364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1364" t="s">
         <v>4</v>
@@ -48848,7 +48878,7 @@
         <v>2542</v>
       </c>
       <c r="G1365" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H1365" t="s">
         <v>4</v>
@@ -48906,7 +48936,7 @@
         <v>2546</v>
       </c>
       <c r="G1367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1367" t="s">
         <v>4</v>
@@ -48935,7 +48965,7 @@
         <v>2548</v>
       </c>
       <c r="G1368" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1368" t="s">
         <v>4</v>
@@ -48964,7 +48994,7 @@
         <v>2550</v>
       </c>
       <c r="G1369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1369" t="s">
         <v>4</v>
@@ -48993,7 +49023,7 @@
         <v>2552</v>
       </c>
       <c r="G1370" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H1370" t="s">
         <v>4</v>
@@ -49022,7 +49052,7 @@
         <v>2554</v>
       </c>
       <c r="G1371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1371" t="s">
         <v>4</v>
@@ -49080,7 +49110,7 @@
         <v>2558</v>
       </c>
       <c r="G1373" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H1373" t="s">
         <v>4</v>
@@ -49109,7 +49139,7 @@
         <v>2560</v>
       </c>
       <c r="G1374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1374" t="s">
         <v>4</v>
@@ -49138,7 +49168,7 @@
         <v>2562</v>
       </c>
       <c r="G1375" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1375" t="s">
         <v>4</v>
@@ -49196,7 +49226,7 @@
         <v>2566</v>
       </c>
       <c r="G1377" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1377" t="s">
         <v>4</v>
@@ -49225,7 +49255,7 @@
         <v>2568</v>
       </c>
       <c r="G1378" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1378" t="s">
         <v>4</v>
@@ -49341,7 +49371,7 @@
         <v>2576</v>
       </c>
       <c r="G1382" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1382" t="s">
         <v>4</v>
@@ -49370,7 +49400,7 @@
         <v>2578</v>
       </c>
       <c r="G1383" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1383" t="s">
         <v>4</v>
@@ -49544,7 +49574,7 @@
         <v>2590</v>
       </c>
       <c r="G1389" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1389" t="s">
         <v>4</v>
@@ -49718,7 +49748,7 @@
         <v>2602</v>
       </c>
       <c r="G1395" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1395" t="s">
         <v>4</v>
@@ -49776,7 +49806,7 @@
         <v>2606</v>
       </c>
       <c r="G1397" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1397" t="s">
         <v>4</v>
@@ -49857,13 +49887,13 @@
         <v>1399</v>
       </c>
       <c r="E1400" t="s">
-        <v>145</v>
+        <v>2611</v>
       </c>
       <c r="F1400" t="s">
-        <v>146</v>
+        <v>2612</v>
       </c>
       <c r="G1400" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="H1400" t="s">
         <v>4</v>
@@ -49886,13 +49916,13 @@
         <v>1400</v>
       </c>
       <c r="E1401" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="F1401" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="G1401" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1401" t="s">
         <v>4</v>
@@ -49915,13 +49945,13 @@
         <v>1401</v>
       </c>
       <c r="E1402" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="F1402" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="G1402" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1402" t="s">
         <v>4</v>
@@ -49944,13 +49974,13 @@
         <v>1402</v>
       </c>
       <c r="E1403" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="F1403" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="G1403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1403" t="s">
         <v>4</v>
@@ -49973,13 +50003,13 @@
         <v>1403</v>
       </c>
       <c r="E1404" t="s">
-        <v>2495</v>
+        <v>2619</v>
       </c>
       <c r="F1404" t="s">
-        <v>2496</v>
+        <v>2620</v>
       </c>
       <c r="G1404" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1404" t="s">
         <v>4</v>
@@ -50002,13 +50032,13 @@
         <v>1404</v>
       </c>
       <c r="E1405" t="s">
-        <v>2617</v>
+        <v>2621</v>
       </c>
       <c r="F1405" t="s">
-        <v>2618</v>
+        <v>2622</v>
       </c>
       <c r="G1405" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1405" t="s">
         <v>4</v>
@@ -50031,13 +50061,13 @@
         <v>1405</v>
       </c>
       <c r="E1406" t="s">
-        <v>2619</v>
+        <v>147</v>
       </c>
       <c r="F1406" t="s">
-        <v>2620</v>
+        <v>148</v>
       </c>
       <c r="G1406" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H1406" t="s">
         <v>4</v>
@@ -50060,13 +50090,13 @@
         <v>1406</v>
       </c>
       <c r="E1407" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="F1407" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="G1407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1407" t="s">
         <v>4</v>
@@ -50089,10 +50119,10 @@
         <v>1407</v>
       </c>
       <c r="E1408" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="F1408" t="s">
-        <v>2624</v>
+        <v>2626</v>
       </c>
       <c r="G1408" t="n">
         <v>4</v>
@@ -50118,13 +50148,13 @@
         <v>1408</v>
       </c>
       <c r="E1409" t="s">
-        <v>2625</v>
+        <v>2627</v>
       </c>
       <c r="F1409" t="s">
-        <v>2626</v>
+        <v>2628</v>
       </c>
       <c r="G1409" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1409" t="s">
         <v>4</v>
@@ -50147,13 +50177,13 @@
         <v>1409</v>
       </c>
       <c r="E1410" t="s">
-        <v>2627</v>
+        <v>2495</v>
       </c>
       <c r="F1410" t="s">
-        <v>2628</v>
+        <v>2496</v>
       </c>
       <c r="G1410" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1410" t="s">
         <v>4</v>
@@ -50182,7 +50212,7 @@
         <v>2630</v>
       </c>
       <c r="G1411" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1411" t="s">
         <v>4</v>
@@ -50269,7 +50299,7 @@
         <v>2636</v>
       </c>
       <c r="G1414" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1414" t="s">
         <v>4</v>
@@ -50298,7 +50328,7 @@
         <v>2638</v>
       </c>
       <c r="G1415" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1415" t="s">
         <v>4</v>
@@ -50385,7 +50415,7 @@
         <v>2644</v>
       </c>
       <c r="G1418" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1418" t="s">
         <v>4</v>
@@ -50466,13 +50496,13 @@
         <v>1420</v>
       </c>
       <c r="E1421" t="s">
-        <v>809</v>
+        <v>2649</v>
       </c>
       <c r="F1421" t="s">
-        <v>810</v>
+        <v>2650</v>
       </c>
       <c r="G1421" t="n">
-        <v>322</v>
+        <v>2</v>
       </c>
       <c r="H1421" t="s">
         <v>4</v>
@@ -50495,10 +50525,10 @@
         <v>1421</v>
       </c>
       <c r="E1422" t="s">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="F1422" t="s">
-        <v>2650</v>
+        <v>2652</v>
       </c>
       <c r="G1422" t="n">
         <v>1</v>
@@ -50524,13 +50554,13 @@
         <v>1422</v>
       </c>
       <c r="E1423" t="s">
-        <v>2651</v>
+        <v>2653</v>
       </c>
       <c r="F1423" t="s">
-        <v>2652</v>
+        <v>2654</v>
       </c>
       <c r="G1423" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H1423" t="s">
         <v>4</v>
@@ -50553,13 +50583,13 @@
         <v>1423</v>
       </c>
       <c r="E1424" t="s">
-        <v>2653</v>
+        <v>2655</v>
       </c>
       <c r="F1424" t="s">
-        <v>2654</v>
+        <v>2656</v>
       </c>
       <c r="G1424" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1424" t="s">
         <v>4</v>
@@ -50582,10 +50612,10 @@
         <v>1424</v>
       </c>
       <c r="E1425" t="s">
-        <v>2655</v>
+        <v>2657</v>
       </c>
       <c r="F1425" t="s">
-        <v>2656</v>
+        <v>2658</v>
       </c>
       <c r="G1425" t="n">
         <v>1</v>
@@ -50611,10 +50641,10 @@
         <v>1425</v>
       </c>
       <c r="E1426" t="s">
-        <v>2657</v>
+        <v>2659</v>
       </c>
       <c r="F1426" t="s">
-        <v>2658</v>
+        <v>2660</v>
       </c>
       <c r="G1426" t="n">
         <v>1</v>
@@ -50640,13 +50670,13 @@
         <v>1426</v>
       </c>
       <c r="E1427" t="s">
-        <v>2659</v>
+        <v>809</v>
       </c>
       <c r="F1427" t="s">
-        <v>2660</v>
+        <v>810</v>
       </c>
       <c r="G1427" t="n">
-        <v>1</v>
+        <v>322</v>
       </c>
       <c r="H1427" t="s">
         <v>4</v>
@@ -50704,7 +50734,7 @@
         <v>2664</v>
       </c>
       <c r="G1429" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H1429" t="s">
         <v>4</v>
@@ -50965,7 +50995,7 @@
         <v>2682</v>
       </c>
       <c r="G1438" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1438" t="s">
         <v>4</v>
@@ -50994,7 +51024,7 @@
         <v>2684</v>
       </c>
       <c r="G1439" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1439" t="s">
         <v>4</v>
@@ -51023,7 +51053,7 @@
         <v>2686</v>
       </c>
       <c r="G1440" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1440" t="s">
         <v>4</v>
@@ -51052,7 +51082,7 @@
         <v>2688</v>
       </c>
       <c r="G1441" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1441" t="s">
         <v>4</v>
@@ -51081,7 +51111,7 @@
         <v>2690</v>
       </c>
       <c r="G1442" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1442" t="s">
         <v>4</v>
@@ -51110,7 +51140,7 @@
         <v>2692</v>
       </c>
       <c r="G1443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1443" t="s">
         <v>4</v>
@@ -51226,7 +51256,7 @@
         <v>2700</v>
       </c>
       <c r="G1447" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1447" t="s">
         <v>4</v>
@@ -51255,7 +51285,7 @@
         <v>2702</v>
       </c>
       <c r="G1448" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1448" t="s">
         <v>4</v>
@@ -51284,7 +51314,7 @@
         <v>2704</v>
       </c>
       <c r="G1449" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H1449" t="s">
         <v>4</v>
@@ -51313,7 +51343,7 @@
         <v>2706</v>
       </c>
       <c r="G1450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1450" t="s">
         <v>4</v>
@@ -51371,7 +51401,7 @@
         <v>2710</v>
       </c>
       <c r="G1452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1452" t="s">
         <v>4</v>
@@ -51400,7 +51430,7 @@
         <v>2712</v>
       </c>
       <c r="G1453" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H1453" t="s">
         <v>4</v>
@@ -51429,7 +51459,7 @@
         <v>2714</v>
       </c>
       <c r="G1454" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1454" t="s">
         <v>4</v>
@@ -51458,7 +51488,7 @@
         <v>2716</v>
       </c>
       <c r="G1455" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H1455" t="s">
         <v>4</v>
@@ -51516,7 +51546,7 @@
         <v>2720</v>
       </c>
       <c r="G1457" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1457" t="s">
         <v>4</v>
@@ -51545,7 +51575,7 @@
         <v>2722</v>
       </c>
       <c r="G1458" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1458" t="s">
         <v>4</v>
@@ -51574,7 +51604,7 @@
         <v>2724</v>
       </c>
       <c r="G1459" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H1459" t="s">
         <v>4</v>
@@ -51603,7 +51633,7 @@
         <v>2726</v>
       </c>
       <c r="G1460" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1460" t="s">
         <v>4</v>
@@ -51632,7 +51662,7 @@
         <v>2728</v>
       </c>
       <c r="G1461" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1461" t="s">
         <v>4</v>
@@ -51655,10 +51685,10 @@
         <v>1461</v>
       </c>
       <c r="E1462" t="s">
-        <v>223</v>
+        <v>2729</v>
       </c>
       <c r="F1462" t="s">
-        <v>224</v>
+        <v>2730</v>
       </c>
       <c r="G1462" t="n">
         <v>1</v>
@@ -51684,13 +51714,13 @@
         <v>1462</v>
       </c>
       <c r="E1463" t="s">
-        <v>2729</v>
+        <v>2731</v>
       </c>
       <c r="F1463" t="s">
-        <v>2730</v>
+        <v>2732</v>
       </c>
       <c r="G1463" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1463" t="s">
         <v>4</v>
@@ -51713,13 +51743,13 @@
         <v>1463</v>
       </c>
       <c r="E1464" t="s">
-        <v>2731</v>
+        <v>2733</v>
       </c>
       <c r="F1464" t="s">
-        <v>2732</v>
+        <v>2734</v>
       </c>
       <c r="G1464" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1464" t="s">
         <v>4</v>
@@ -51742,13 +51772,13 @@
         <v>1464</v>
       </c>
       <c r="E1465" t="s">
-        <v>2733</v>
+        <v>2735</v>
       </c>
       <c r="F1465" t="s">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c r="G1465" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1465" t="s">
         <v>4</v>
@@ -51771,13 +51801,13 @@
         <v>1465</v>
       </c>
       <c r="E1466" t="s">
-        <v>2735</v>
+        <v>2737</v>
       </c>
       <c r="F1466" t="s">
-        <v>2736</v>
+        <v>2738</v>
       </c>
       <c r="G1466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1466" t="s">
         <v>4</v>
@@ -51800,10 +51830,10 @@
         <v>1466</v>
       </c>
       <c r="E1467" t="s">
-        <v>2721</v>
+        <v>2739</v>
       </c>
       <c r="F1467" t="s">
-        <v>2722</v>
+        <v>2740</v>
       </c>
       <c r="G1467" t="n">
         <v>6</v>
@@ -51829,13 +51859,13 @@
         <v>1467</v>
       </c>
       <c r="E1468" t="s">
-        <v>143</v>
+        <v>223</v>
       </c>
       <c r="F1468" t="s">
-        <v>144</v>
+        <v>224</v>
       </c>
       <c r="G1468" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H1468" t="s">
         <v>4</v>
@@ -51858,10 +51888,10 @@
         <v>1468</v>
       </c>
       <c r="E1469" t="s">
-        <v>2737</v>
+        <v>2741</v>
       </c>
       <c r="F1469" t="s">
-        <v>2738</v>
+        <v>2742</v>
       </c>
       <c r="G1469" t="n">
         <v>1</v>
@@ -51887,13 +51917,13 @@
         <v>1469</v>
       </c>
       <c r="E1470" t="s">
-        <v>2739</v>
+        <v>2743</v>
       </c>
       <c r="F1470" t="s">
-        <v>2740</v>
+        <v>2744</v>
       </c>
       <c r="G1470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1470" t="s">
         <v>4</v>
@@ -51916,10 +51946,10 @@
         <v>1470</v>
       </c>
       <c r="E1471" t="s">
-        <v>265</v>
+        <v>2745</v>
       </c>
       <c r="F1471" t="s">
-        <v>266</v>
+        <v>2746</v>
       </c>
       <c r="G1471" t="n">
         <v>1</v>
@@ -51945,13 +51975,13 @@
         <v>1471</v>
       </c>
       <c r="E1472" t="s">
-        <v>2741</v>
+        <v>2747</v>
       </c>
       <c r="F1472" t="s">
-        <v>2742</v>
+        <v>2748</v>
       </c>
       <c r="G1472" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1472" t="s">
         <v>4</v>
@@ -51974,13 +52004,13 @@
         <v>1472</v>
       </c>
       <c r="E1473" t="s">
-        <v>2743</v>
+        <v>2733</v>
       </c>
       <c r="F1473" t="s">
-        <v>2744</v>
+        <v>2734</v>
       </c>
       <c r="G1473" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1473" t="s">
         <v>4</v>
@@ -52003,13 +52033,13 @@
         <v>1473</v>
       </c>
       <c r="E1474" t="s">
-        <v>2745</v>
+        <v>145</v>
       </c>
       <c r="F1474" t="s">
-        <v>2746</v>
+        <v>146</v>
       </c>
       <c r="G1474" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H1474" t="s">
         <v>4</v>
@@ -52032,10 +52062,10 @@
         <v>1474</v>
       </c>
       <c r="E1475" t="s">
-        <v>2747</v>
+        <v>2749</v>
       </c>
       <c r="F1475" t="s">
-        <v>2748</v>
+        <v>2750</v>
       </c>
       <c r="G1475" t="n">
         <v>1</v>
@@ -52061,10 +52091,10 @@
         <v>1475</v>
       </c>
       <c r="E1476" t="s">
-        <v>2749</v>
+        <v>2751</v>
       </c>
       <c r="F1476" t="s">
-        <v>2750</v>
+        <v>2752</v>
       </c>
       <c r="G1476" t="n">
         <v>1</v>
@@ -52090,10 +52120,10 @@
         <v>1476</v>
       </c>
       <c r="E1477" t="s">
-        <v>2751</v>
+        <v>265</v>
       </c>
       <c r="F1477" t="s">
-        <v>2752</v>
+        <v>266</v>
       </c>
       <c r="G1477" t="n">
         <v>1</v>
@@ -52125,7 +52155,7 @@
         <v>2754</v>
       </c>
       <c r="G1478" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1478" t="s">
         <v>4</v>
@@ -52525,13 +52555,13 @@
         <v>1491</v>
       </c>
       <c r="E1492" t="s">
-        <v>2721</v>
+        <v>2781</v>
       </c>
       <c r="F1492" t="s">
-        <v>2722</v>
+        <v>2782</v>
       </c>
       <c r="G1492" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1492" t="s">
         <v>4</v>
@@ -52554,10 +52584,10 @@
         <v>1492</v>
       </c>
       <c r="E1493" t="s">
-        <v>2781</v>
+        <v>2783</v>
       </c>
       <c r="F1493" t="s">
-        <v>2782</v>
+        <v>2784</v>
       </c>
       <c r="G1493" t="n">
         <v>1</v>
@@ -52583,10 +52613,10 @@
         <v>1493</v>
       </c>
       <c r="E1494" t="s">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="F1494" t="s">
-        <v>2784</v>
+        <v>2786</v>
       </c>
       <c r="G1494" t="n">
         <v>1</v>
@@ -52612,10 +52642,10 @@
         <v>1494</v>
       </c>
       <c r="E1495" t="s">
-        <v>2785</v>
+        <v>2787</v>
       </c>
       <c r="F1495" t="s">
-        <v>2786</v>
+        <v>2788</v>
       </c>
       <c r="G1495" t="n">
         <v>1</v>
@@ -52641,10 +52671,10 @@
         <v>1495</v>
       </c>
       <c r="E1496" t="s">
-        <v>2787</v>
+        <v>2789</v>
       </c>
       <c r="F1496" t="s">
-        <v>2788</v>
+        <v>2790</v>
       </c>
       <c r="G1496" t="n">
         <v>1</v>
@@ -52670,10 +52700,10 @@
         <v>1496</v>
       </c>
       <c r="E1497" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="F1497" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="G1497" t="n">
         <v>1</v>
@@ -52699,13 +52729,13 @@
         <v>1497</v>
       </c>
       <c r="E1498" t="s">
-        <v>2791</v>
+        <v>2733</v>
       </c>
       <c r="F1498" t="s">
-        <v>2792</v>
+        <v>2734</v>
       </c>
       <c r="G1498" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1498" t="s">
         <v>4</v>
@@ -52902,10 +52932,10 @@
         <v>1504</v>
       </c>
       <c r="E1505" t="s">
-        <v>2549</v>
+        <v>2805</v>
       </c>
       <c r="F1505" t="s">
-        <v>2550</v>
+        <v>2806</v>
       </c>
       <c r="G1505" t="n">
         <v>1</v>
@@ -52931,10 +52961,10 @@
         <v>1505</v>
       </c>
       <c r="E1506" t="s">
-        <v>2805</v>
+        <v>2807</v>
       </c>
       <c r="F1506" t="s">
-        <v>2806</v>
+        <v>2808</v>
       </c>
       <c r="G1506" t="n">
         <v>1</v>
@@ -52960,10 +52990,10 @@
         <v>1506</v>
       </c>
       <c r="E1507" t="s">
-        <v>2807</v>
+        <v>2809</v>
       </c>
       <c r="F1507" t="s">
-        <v>2808</v>
+        <v>2810</v>
       </c>
       <c r="G1507" t="n">
         <v>1</v>
@@ -52989,10 +53019,10 @@
         <v>1507</v>
       </c>
       <c r="E1508" t="s">
-        <v>2809</v>
+        <v>2811</v>
       </c>
       <c r="F1508" t="s">
-        <v>2810</v>
+        <v>2812</v>
       </c>
       <c r="G1508" t="n">
         <v>1</v>
@@ -53018,10 +53048,10 @@
         <v>1508</v>
       </c>
       <c r="E1509" t="s">
-        <v>2811</v>
+        <v>2813</v>
       </c>
       <c r="F1509" t="s">
-        <v>2812</v>
+        <v>2814</v>
       </c>
       <c r="G1509" t="n">
         <v>1</v>
@@ -53047,10 +53077,10 @@
         <v>1509</v>
       </c>
       <c r="E1510" t="s">
-        <v>2813</v>
+        <v>2815</v>
       </c>
       <c r="F1510" t="s">
-        <v>2814</v>
+        <v>2816</v>
       </c>
       <c r="G1510" t="n">
         <v>1</v>
@@ -53076,10 +53106,10 @@
         <v>1510</v>
       </c>
       <c r="E1511" t="s">
-        <v>2815</v>
+        <v>2559</v>
       </c>
       <c r="F1511" t="s">
-        <v>2816</v>
+        <v>2560</v>
       </c>
       <c r="G1511" t="n">
         <v>1</v>
@@ -53111,7 +53141,7 @@
         <v>2818</v>
       </c>
       <c r="G1512" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1512" t="s">
         <v>4</v>
@@ -53285,7 +53315,7 @@
         <v>2830</v>
       </c>
       <c r="G1518" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1518" t="s">
         <v>4</v>
@@ -54503,7 +54533,7 @@
         <v>2914</v>
       </c>
       <c r="G1560" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1560" t="s">
         <v>4</v>
@@ -54677,7 +54707,7 @@
         <v>2926</v>
       </c>
       <c r="G1566" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1566" t="s">
         <v>4</v>
@@ -55048,10 +55078,10 @@
         <v>1578</v>
       </c>
       <c r="E1579" t="s">
-        <v>2715</v>
+        <v>2951</v>
       </c>
       <c r="F1579" t="s">
-        <v>2716</v>
+        <v>2952</v>
       </c>
       <c r="G1579" t="n">
         <v>1</v>
@@ -55077,13 +55107,13 @@
         <v>1579</v>
       </c>
       <c r="E1580" t="s">
-        <v>2951</v>
+        <v>2953</v>
       </c>
       <c r="F1580" t="s">
-        <v>2952</v>
+        <v>2954</v>
       </c>
       <c r="G1580" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1580" t="s">
         <v>4</v>
@@ -55106,10 +55136,10 @@
         <v>1580</v>
       </c>
       <c r="E1581" t="s">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="F1581" t="s">
-        <v>2954</v>
+        <v>2956</v>
       </c>
       <c r="G1581" t="n">
         <v>1</v>
@@ -55135,10 +55165,10 @@
         <v>1581</v>
       </c>
       <c r="E1582" t="s">
-        <v>2955</v>
+        <v>2957</v>
       </c>
       <c r="F1582" t="s">
-        <v>2956</v>
+        <v>2958</v>
       </c>
       <c r="G1582" t="n">
         <v>1</v>
@@ -55164,10 +55194,10 @@
         <v>1582</v>
       </c>
       <c r="E1583" t="s">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="F1583" t="s">
-        <v>2958</v>
+        <v>2960</v>
       </c>
       <c r="G1583" t="n">
         <v>1</v>
@@ -55193,10 +55223,10 @@
         <v>1583</v>
       </c>
       <c r="E1584" t="s">
-        <v>2959</v>
+        <v>2727</v>
       </c>
       <c r="F1584" t="s">
-        <v>2960</v>
+        <v>2728</v>
       </c>
       <c r="G1584" t="n">
         <v>1</v>
@@ -55228,7 +55258,7 @@
         <v>2962</v>
       </c>
       <c r="G1585" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1585" t="s">
         <v>4</v>
@@ -55257,7 +55287,7 @@
         <v>2964</v>
       </c>
       <c r="G1586" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H1586" t="s">
         <v>4</v>
@@ -55280,10 +55310,10 @@
         <v>1586</v>
       </c>
       <c r="E1587" t="s">
-        <v>2963</v>
+        <v>2965</v>
       </c>
       <c r="F1587" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="G1587" t="n">
         <v>1</v>
@@ -55309,18 +55339,163 @@
         <v>1587</v>
       </c>
       <c r="E1588" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="F1588" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="G1588" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1588" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:9">
+      <c r="A1589" s="1" t="n">
+        <v>1587</v>
+      </c>
+      <c r="B1589" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1589" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>1588</v>
+      </c>
+      <c r="E1589" t="s">
+        <v>2969</v>
+      </c>
+      <c r="F1589" t="s">
+        <v>2970</v>
+      </c>
+      <c r="G1589" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1589" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:9">
+      <c r="A1590" s="1" t="n">
+        <v>1588</v>
+      </c>
+      <c r="B1590" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1590" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>1589</v>
+      </c>
+      <c r="E1590" t="s">
+        <v>2971</v>
+      </c>
+      <c r="F1590" t="s">
+        <v>2972</v>
+      </c>
+      <c r="G1590" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1590" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:9">
+      <c r="A1591" s="1" t="n">
+        <v>1589</v>
+      </c>
+      <c r="B1591" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1591" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>1590</v>
+      </c>
+      <c r="E1591" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1591" t="s">
+        <v>2974</v>
+      </c>
+      <c r="G1591" t="n">
+        <v>36</v>
+      </c>
+      <c r="H1591" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:9">
+      <c r="A1592" s="1" t="n">
+        <v>1590</v>
+      </c>
+      <c r="B1592" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1592" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>1591</v>
+      </c>
+      <c r="E1592" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1592" t="s">
+        <v>2975</v>
+      </c>
+      <c r="G1592" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1592" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:9">
+      <c r="A1593" s="1" t="n">
+        <v>1591</v>
+      </c>
+      <c r="B1593" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1593" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>1592</v>
+      </c>
+      <c r="E1593" t="s">
+        <v>2976</v>
+      </c>
+      <c r="F1593" t="s">
+        <v>2977</v>
+      </c>
+      <c r="G1593" t="n">
         <v>2</v>
       </c>
-      <c r="H1588" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1588" t="n">
+      <c r="H1593" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1593" t="n">
         <v>3</v>
       </c>
     </row>
